--- a/dados/topshitech.xlsx
+++ b/dados/topshitech.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:190645127#searchVariation=MLB22144397&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=cc50fa8c-7f75-45ae-8043-a659d33fee43</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:190645127#searchVariation=MLB22144397&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=bdb859aa-9c72-4964-b64d-985cab34001d</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:190645127#searchVariation=MLB21392652&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=cc50fa8c-7f75-45ae-8043-a659d33fee43</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:190645127#searchVariation=MLB21392652&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=bdb859aa-9c72-4964-b64d-985cab34001d</t>
         </is>
       </c>
     </row>
@@ -521,17 +551,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:190645127#searchVariation=MLB21320712&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=cc50fa8c-7f75-45ae-8043-a659d33fee43</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:190645127#searchVariation=MLB21320712&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=bdb859aa-9c72-4964-b64d-985cab34001d</t>
         </is>
       </c>
     </row>
@@ -546,42 +586,58 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:190645127#searchVariation=MLB21562641&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=cc50fa8c-7f75-45ae-8043-a659d33fee43</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:190645127#searchVariation=MLB21562641&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=bdb859aa-9c72-4964-b64d-985cab34001d</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>402.79</v>
+        <v>95.26000000000001</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:190645127#searchVariation=MLB21621306&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=cc50fa8c-7f75-45ae-8043-a659d33fee43</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:190645127#searchVariation=MLB27685629&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=bdb859aa-9c72-4964-b64d-985cab34001d</t>
         </is>
       </c>
     </row>
@@ -592,171 +648,229 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.26000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:190645127#searchVariation=MLB27685629&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=cc50fa8c-7f75-45ae-8043-a659d33fee43</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:190645127#searchVariation=MLB27687422&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=bdb859aa-9c72-4964-b64d-985cab34001d</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90.90000000000001</v>
+        <v>58.13</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:190645127#searchVariation=MLB27687422&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=cc50fa8c-7f75-45ae-8043-a659d33fee43</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:190645127#searchVariation=MLB32364344&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=bdb859aa-9c72-4964-b64d-985cab34001d</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>58.13</v>
+        <v>845.87</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:190645127#searchVariation=MLB32364344&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=cc50fa8c-7f75-45ae-8043-a659d33fee43</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:190645127#searchVariation=MLB21348561&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=90dfa545-2c06-4ec9-b690-627e6f3df106</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>845.87</v>
+        <v>624.33</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:190645127#searchVariation=MLB21348561&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=48cc1730-a799-4521-9887-76a6c39218b5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:190645127#searchVariation=MLB24834408&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=90dfa545-2c06-4ec9-b690-627e6f3df106</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>624.33</v>
+        <v>68.31</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:190645127#searchVariation=MLB24834408&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=48cc1730-a799-4521-9887-76a6c39218b5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:190645127#searchVariation=MLB28722231&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=90dfa545-2c06-4ec9-b690-627e6f3df106</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68.31</v>
+        <v>390.43</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:190645127#searchVariation=MLB28722231&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=48cc1730-a799-4521-9887-76a6c39218b5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:190645127#searchVariation=MLB23456525&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=90dfa545-2c06-4ec9-b690-627e6f3df106</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>390.43</v>
+        <v>402.79</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:190645127#searchVariation=MLB23456525&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=48cc1730-a799-4521-9887-76a6c39218b5</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:190645127#searchVariation=MLB21621306&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=90dfa545-2c06-4ec9-b690-627e6f3df106</t>
         </is>
       </c>
     </row>
@@ -771,17 +885,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:190645127#searchVariation=MLB21455208&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=52ff4d10-e70f-470d-a99a-eac92f77ef58</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:190645127#searchVariation=MLB21455208&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=90dfa545-2c06-4ec9-b690-627e6f3df106</t>
         </is>
       </c>
     </row>
@@ -796,17 +920,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:190645127#searchVariation=MLB30476096&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=02426982-4883-4439-9ec7-d43d4400034a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:190645127#searchVariation=MLB30476096&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=ee91cc12-d494-44e2-911a-596800a2b4ec</t>
         </is>
       </c>
     </row>
@@ -821,17 +951,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:190645127#searchVariation=MLB25571709&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=02426982-4883-4439-9ec7-d43d4400034a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:190645127#searchVariation=MLB25571709&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f8c6b51-282a-45f7-9e26-d0165cf36c25</t>
         </is>
       </c>
     </row>
@@ -846,17 +986,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:190645127#searchVariation=MLB35970528&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=02426982-4883-4439-9ec7-d43d4400034a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:190645127#searchVariation=MLB35970528&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f8c6b51-282a-45f7-9e26-d0165cf36c25</t>
         </is>
       </c>
     </row>
@@ -871,17 +1017,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:190645127#searchVariation=MLB26091477&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=f2d1ffb0-c05f-4a6d-b5bb-ef4b2da76bde</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:190645127#searchVariation=MLB26091477&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=c323adff-b66f-493a-a171-849a4e57512a</t>
         </is>
       </c>
     </row>
@@ -896,17 +1052,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3307724882-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0dc0e8be-21ae-4519-901c-b9887b6aa20f</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3307724882-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd89537bd-c24d-47e8-a46c-c1099c57fe65</t>
         </is>
       </c>
     </row>
@@ -921,17 +1087,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166702825-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc3695d8b-50b1-49df-a4b7-a10cd901636c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2166702825-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc06f509f-5d29-41c4-a56b-4255f5a46822</t>
         </is>
       </c>
     </row>
@@ -946,17 +1122,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668270466-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6732bce8-f297-497a-b48a-d61d8354630f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668270466-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db40ad72e-a76f-4aef-9c5d-6440ae297287</t>
         </is>
       </c>
     </row>
@@ -971,17 +1157,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164183594-conversor-rca-comando-remoto-slim-jfa-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db7749c88-6025-4750-9097-04eb01c44cf4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164183594-conversor-rca-comando-remoto-slim-jfa-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1d75efaf-dfd5-490b-87b4-438e9db5dc9f</t>
         </is>
       </c>
     </row>
@@ -996,17 +1188,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711481213-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db7749c88-6025-4750-9097-04eb01c44cf4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2711481213-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1d75efaf-dfd5-490b-87b4-438e9db5dc9f</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1219,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2773109259-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db7749c88-6025-4750-9097-04eb01c44cf4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2773109259-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1d75efaf-dfd5-490b-87b4-438e9db5dc9f</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1254,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1312001423-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db7749c88-6025-4750-9097-04eb01c44cf4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1312001423-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1d75efaf-dfd5-490b-87b4-438e9db5dc9f</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1289,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1385929224-jfa-vs5hi-sequenciador-voltimetro-medidor-bateria-digital-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db7749c88-6025-4750-9097-04eb01c44cf4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1385929224-jfa-vs5hi-sequenciador-voltimetro-medidor-bateria-digital-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1d75efaf-dfd5-490b-87b4-438e9db5dc9f</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1320,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311998576-fonte-automotiva-120-a-jfa-carregador-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D357d6056-8903-4d15-82a1-21e172a3afce</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1311998576-fonte-automotiva-120-a-jfa-carregador-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c6ee068-7037-41c9-9478-0025303ca8f0</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1355,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2714500016-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D357d6056-8903-4d15-82a1-21e172a3afce</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2714500016-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c6ee068-7037-41c9-9478-0025303ca8f0</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1390,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734190611-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D357d6056-8903-4d15-82a1-21e172a3afce</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2734190611-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c6ee068-7037-41c9-9478-0025303ca8f0</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1421,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1385926184-voltimetro-sequenciador-jfa-vs5hi-c-5-saidas-remotas-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df1ed2ac1-c797-4a3d-9241-ea18404537f1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1385926184-voltimetro-sequenciador-jfa-vs5hi-c-5-saidas-remotas-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbe100291-9563-4be8-af0a-53dd7043ab2f</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1452,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2205960702-nova-fonte-automotiva-60a-amperes-jfa-carregador-storm-novo-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df1ed2ac1-c797-4a3d-9241-ea18404537f1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2205960702-nova-fonte-automotiva-60a-amperes-jfa-carregador-storm-novo-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbe100291-9563-4be8-af0a-53dd7043ab2f</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1487,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668350670-fonte-automotiva-jfa-120-amperes-sistema-csi-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df1ed2ac1-c797-4a3d-9241-ea18404537f1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668350670-fonte-automotiva-jfa-120-amperes-sistema-csi-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbe100291-9563-4be8-af0a-53dd7043ab2f</t>
         </is>
       </c>
     </row>
@@ -1246,17 +1522,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2797291983-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0ed9d2de-c7f5-47f1-b3d5-433587f67470</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2797291983-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbe100291-9563-4be8-af0a-53dd7043ab2f</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1557,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668362898-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0ed9d2de-c7f5-47f1-b3d5-433587f67470</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668362898-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D60b8dd23-0888-453a-b9d6-54e9efd1d5ba</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1592,23 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3685249297-modulo-amplificador-jfa-380x4-crossover-integrado-4-canais-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0ed9d2de-c7f5-47f1-b3d5-433587f67470</t>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3685249297-modulo-amplificador-jfa-380x4-crossover-integrado-4-canais-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D60b8dd23-0888-453a-b9d6-54e9efd1d5ba</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1623,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683851635-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0ed9d2de-c7f5-47f1-b3d5-433587f67470</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683851635-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D60b8dd23-0888-453a-b9d6-54e9efd1d5ba</t>
         </is>
       </c>
     </row>
@@ -1346,17 +1658,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683826961-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0ed9d2de-c7f5-47f1-b3d5-433587f67470</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683826961-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D60b8dd23-0888-453a-b9d6-54e9efd1d5ba</t>
         </is>
       </c>
     </row>
@@ -1371,17 +1693,23 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734228186-controle-longa-distncia-jfa-k1200-pretolaranja-1200mt-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5714d08c-cf28-4d8f-bd3e-83e9c237fe39</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2734228186-controle-longa-distncia-jfa-k1200-pretolaranja-1200mt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bbaee2b-dbeb-44fe-bf26-e32be8783174</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1724,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1312001389-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5714d08c-cf28-4d8f-bd3e-83e9c237fe39</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1312001389-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bbaee2b-dbeb-44fe-bf26-e32be8783174</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1759,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668299414-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2e2b97c3-617e-4db0-92af-c1015ae00155</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668299414-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
         </is>
       </c>
     </row>
@@ -1446,17 +1794,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668286418-fonte-carregador-jfa-storm-lite-60a-3000-w-preto-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2e2b97c3-617e-4db0-92af-c1015ae00155</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668286418-fonte-carregador-jfa-storm-lite-60a-3000-w-preto-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
         </is>
       </c>
     </row>
@@ -1471,17 +1829,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668309628-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2e2b97c3-617e-4db0-92af-c1015ae00155</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668309628-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1864,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2969540561-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2e2b97c3-617e-4db0-92af-c1015ae00155</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2969540561-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1899,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668323764-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2e2b97c3-617e-4db0-92af-c1015ae00155</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668323764-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
         </is>
       </c>
     </row>
@@ -1546,17 +1934,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684206801-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2e2b97c3-617e-4db0-92af-c1015ae00155</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684206801-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
         </is>
       </c>
     </row>
@@ -1571,17 +1969,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684142123-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2e2b97c3-617e-4db0-92af-c1015ae00155</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684142123-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
         </is>
       </c>
     </row>
@@ -1596,17 +2004,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3257194701-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2e2b97c3-617e-4db0-92af-c1015ae00155</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3257194701-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
         </is>
       </c>
     </row>
@@ -1621,17 +2039,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1312001632-fonte-automotiva-digital-jfa-turbo-70a-bivolt-automatica-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2e2b97c3-617e-4db0-92af-c1015ae00155</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1312001632-fonte-automotiva-digital-jfa-turbo-70a-bivolt-automatica-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
         </is>
       </c>
     </row>
@@ -1646,17 +2074,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2617179137-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61579f76-c3d4-424c-b1e3-8a675198d017</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2617179137-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09e5d8e0-133c-4c0d-b867-0e28dcfadff3</t>
         </is>
       </c>
     </row>
@@ -1671,17 +2109,23 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711628545-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2b9eef85-bb17-4990-9ba7-d1ce49eeefe8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2711628545-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9ba2333f-e14a-4de5-b90f-86ab74b8f81a</t>
         </is>
       </c>
     </row>
@@ -1696,17 +2140,23 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2011900334-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79d4c9e5-20f7-4680-b57f-0dce4261d60b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2011900334-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D71f39bc2-2988-4ec8-8111-bc17bf9fc711</t>
         </is>
       </c>
     </row>
@@ -1721,17 +2171,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668299822-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a233f76-87a9-45ee-965f-97490d5fb7b9</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668299822-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D40ca2013-7b54-413e-9bab-c165926a94f5</t>
         </is>
       </c>
     </row>
@@ -1746,17 +2206,23 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711623637-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a233f76-87a9-45ee-965f-97490d5fb7b9</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2711623637-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D40ca2013-7b54-413e-9bab-c165926a94f5</t>
         </is>
       </c>
     </row>
@@ -1771,17 +2237,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683749493-fonte-jfa-70a-sci-fonte-carregador-bateria-inteligente-12v-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a233f76-87a9-45ee-965f-97490d5fb7b9</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683749493-fonte-jfa-70a-sci-fonte-carregador-bateria-inteligente-12v-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D40ca2013-7b54-413e-9bab-c165926a94f5</t>
         </is>
       </c>
     </row>
@@ -1796,17 +2272,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683749747-fonte-automotiva-jfa-200a-slim-bivolt-digital-voltimetro-som-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a233f76-87a9-45ee-965f-97490d5fb7b9</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683749747-fonte-automotiva-jfa-200a-slim-bivolt-digital-voltimetro-som-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D40ca2013-7b54-413e-9bab-c165926a94f5</t>
         </is>
       </c>
     </row>
@@ -1821,17 +2307,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668286328-fonte-automotiva-120-a-jfa-carregador-modelo-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df1369a97-2c23-4cfa-bd0b-27c9d380cafb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668286328-fonte-automotiva-120-a-jfa-carregador-modelo-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3c239ea7-add8-4c00-b28b-a985ae7c8fee</t>
         </is>
       </c>
     </row>
@@ -1846,17 +2342,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166741154-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df1369a97-2c23-4cfa-bd0b-27c9d380cafb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2166741154-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3c239ea7-add8-4c00-b28b-a985ae7c8fee</t>
         </is>
       </c>
     </row>
@@ -1871,17 +2377,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684142641-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bo-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De683ed09-36fe-4d33-9c16-a9ea6aa0a16b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684142641-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bo-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D62f0ada9-07df-4166-b065-f516bad15649</t>
         </is>
       </c>
     </row>
@@ -1896,17 +2412,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684181783-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De683ed09-36fe-4d33-9c16-a9ea6aa0a16b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684181783-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D62f0ada9-07df-4166-b065-f516bad15649</t>
         </is>
       </c>
     </row>
@@ -1921,17 +2447,23 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668285660-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9413bbf3-3364-4216-bcd2-5a9bbc1a4f65</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668285660-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D62f0ada9-07df-4166-b065-f516bad15649</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2478,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668338738-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9413bbf3-3364-4216-bcd2-5a9bbc1a4f65</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668338738-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D62f0ada9-07df-4166-b065-f516bad15649</t>
         </is>
       </c>
     </row>
@@ -1971,17 +2513,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683813733-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D64ed704d-3184-4224-bf30-cef714e2452b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683813733-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04ca6133-9572-41b3-bc8f-d5a49227e3d6</t>
         </is>
       </c>
     </row>
@@ -1996,17 +2548,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684168355-fonte-carregador-jfa-bob-200-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D64ed704d-3184-4224-bf30-cef714e2452b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684168355-fonte-carregador-jfa-bob-200-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04ca6133-9572-41b3-bc8f-d5a49227e3d6</t>
         </is>
       </c>
     </row>
@@ -2021,17 +2583,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668325630-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D64ed704d-3184-4224-bf30-cef714e2452b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668325630-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04ca6133-9572-41b3-bc8f-d5a49227e3d6</t>
         </is>
       </c>
     </row>
@@ -2046,17 +2618,23 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734211670-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D72339f4b-76ea-4d76-bf2d-6ac2f68e12c3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2734211670-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c9fb6d8-eb86-427a-a81d-f6921f8f45e9</t>
         </is>
       </c>
     </row>
@@ -2071,17 +2649,23 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683735209-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D57c1ed84-4430-4a41-9c88-83d86009717e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683735209-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c9fb6d8-eb86-427a-a81d-f6921f8f45e9</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2680,23 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684155913-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D57c1ed84-4430-4a41-9c88-83d86009717e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684155913-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daadeda3b-d71f-4749-8ef9-dea45fd92dac</t>
         </is>
       </c>
     </row>
@@ -2121,17 +2711,23 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1550166570-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ca87f68-6732-4055-a40d-2d5a13d5e99c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1550166570-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daadeda3b-d71f-4749-8ef9-dea45fd92dac</t>
         </is>
       </c>
     </row>
@@ -2146,17 +2742,23 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164196082-conversor-jfa-slim-rca-comando-remoto-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ca87f68-6732-4055-a40d-2d5a13d5e99c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164196082-conversor-jfa-slim-rca-comando-remoto-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfad8c3e1-90f3-4fa2-971d-e0f89118c99f</t>
         </is>
       </c>
     </row>
@@ -2171,17 +2773,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684194497-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfcb63031-f1e6-40e5-b62f-7980063bc083</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684194497-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04eef143-e553-470d-9406-c0e81b2952b7</t>
         </is>
       </c>
     </row>
@@ -2196,17 +2808,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684245311-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bo-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfcb63031-f1e6-40e5-b62f-7980063bc083</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684245311-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bo-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04eef143-e553-470d-9406-c0e81b2952b7</t>
         </is>
       </c>
     </row>
@@ -2221,17 +2843,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683747997-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D97b2c795-176a-4cc8-b121-24aff035f0e5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683747997-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc95d6e8f-3d5c-4762-91bf-d325b14611d7</t>
         </is>
       </c>
     </row>
@@ -2246,17 +2878,23 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684141331-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db161222c-c9d4-4ceb-88c8-0bef9e9e69b3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684141331-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38e9f541-8e42-45a6-9837-38ca5f0e22da</t>
         </is>
       </c>
     </row>
@@ -2271,17 +2909,23 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4663856102-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d1486a0-a9c1-46fb-8ced-5606816e92aa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4663856102-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2d5f973b-c4a7-4eb4-887e-72d64bef2411</t>
         </is>
       </c>
     </row>
@@ -2296,17 +2940,23 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668309598-controle-remoto-universal-longa-jfa-k1200-preto-c-verde-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d1486a0-a9c1-46fb-8ced-5606816e92aa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668309598-controle-remoto-universal-longa-jfa-k1200-preto-c-verde-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2d5f973b-c4a7-4eb4-887e-72d64bef2411</t>
         </is>
       </c>
     </row>
@@ -2321,17 +2971,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684181739-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6c4acd34-c741-44f7-8bdd-fdd934e19926</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684181739-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38cdf9da-e677-4ef8-908b-21b3e027b263</t>
         </is>
       </c>
     </row>
@@ -2346,17 +3006,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3307301267-fonte-carregador-jfa-storm-70a-lite-bivolt-12v-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1d37b7a-2182-452f-97f4-edc10cb6d4ff</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3307301267-fonte-carregador-jfa-storm-70a-lite-bivolt-12v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6c4be33a-225a-468f-b44f-3ada4e975377</t>
         </is>
       </c>
     </row>
@@ -2371,17 +3041,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166850850-fonte-carregador-automotiva-120a-amperes-jfa-carregador-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1d37b7a-2182-452f-97f4-edc10cb6d4ff</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2166850850-fonte-carregador-automotiva-120a-amperes-jfa-carregador-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6c4be33a-225a-468f-b44f-3ada4e975377</t>
         </is>
       </c>
     </row>
@@ -2396,17 +3076,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311998556-fonte-automotiva-120-a-jfa-carregador-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3f7ee758-c9c6-4f6c-b5df-326dfb5d8a25</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1311998556-fonte-automotiva-120-a-jfa-carregador-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7087cf51-7bf8-4133-861d-dff383586b0f</t>
         </is>
       </c>
     </row>
@@ -2421,17 +3111,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2621269843-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D68c9af1d-4ed5-4c0e-9272-85dedc5d1902</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2621269843-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7087cf51-7bf8-4133-861d-dff383586b0f</t>
         </is>
       </c>
     </row>
@@ -2446,17 +3146,23 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734195628-controle-longa-distancia-k1200-jfa-preto-com-laranja-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D68c9af1d-4ed5-4c0e-9272-85dedc5d1902</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2734195628-controle-longa-distancia-k1200-jfa-preto-com-laranja-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db53ab433-9a65-40b6-83ea-6923bfd9daaf</t>
         </is>
       </c>
     </row>
@@ -2471,17 +3177,23 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734209043-controle-remoto-universal-longa-distncia-jfa-k1200-2-cores-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddfa36962-2a59-485e-8f74-e7f254b16c66</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2734209043-controle-remoto-universal-longa-distncia-jfa-k1200-2-cores-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db53ab433-9a65-40b6-83ea-6923bfd9daaf</t>
         </is>
       </c>
     </row>
@@ -2496,17 +3208,23 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3686292837-modulo-amplificador-jfa-380x4-crossover-integrado-4-canais-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddfa36962-2a59-485e-8f74-e7f254b16c66</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3686292837-modulo-amplificador-jfa-380x4-crossover-integrado-4-canais-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3e45a9f-3bc3-4691-a2ce-f76a4973efbd</t>
         </is>
       </c>
     </row>
@@ -2521,17 +3239,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684220337-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddfa36962-2a59-485e-8f74-e7f254b16c66</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684220337-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3e45a9f-3bc3-4691-a2ce-f76a4973efbd</t>
         </is>
       </c>
     </row>

--- a/dados/topshitech.xlsx
+++ b/dados/topshitech.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>499.46</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -501,32 +501,28 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:190645127#searchVariation=MLB22144397&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=bdb859aa-9c72-4964-b64d-985cab34001d</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:190645127#searchVariation=MLB22144397&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=09e65299-fcb1-44c3-9529-0cb0b64de926</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>95.26000000000001</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,23 +532,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:190645127#searchVariation=MLB21392652&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=bdb859aa-9c72-4964-b64d-985cab34001d</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:190645127#searchVariation=MLB27685629&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=09e65299-fcb1-44c3-9529-0cb0b64de926</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>634.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -571,32 +567,28 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:190645127#searchVariation=MLB21320712&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=bdb859aa-9c72-4964-b64d-985cab34001d</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:190645127#searchVariation=MLB21392652&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=09e65299-fcb1-44c3-9529-0cb0b64de926</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>422.93</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,23 +598,23 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:190645127#searchVariation=MLB21562641&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=bdb859aa-9c72-4964-b64d-985cab34001d</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:190645127#searchVariation=MLB27687422&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=09e65299-fcb1-44c3-9529-0cb0b64de926</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>95.26000000000001</v>
-      </c>
-      <c r="C6" t="inlineStr">
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C6" t="n">
+        <v>58.13</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -637,28 +629,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:190645127#searchVariation=MLB27685629&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=bdb859aa-9c72-4964-b64d-985cab34001d</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:190645127#searchVariation=MLB32364344&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=09e65299-fcb1-44c3-9529-0cb0b64de926</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>422.93</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -668,25 +664,29 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:190645127#searchVariation=MLB27687422&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=bdb859aa-9c72-4964-b64d-985cab34001d</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:190645127#searchVariation=MLB21562641&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=09e65299-fcb1-44c3-9529-0cb0b64de926</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>NA</t>
@@ -694,28 +694,28 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:190645127#searchVariation=MLB32364344&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=bdb859aa-9c72-4964-b64d-985cab34001d</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:190645127#searchVariation=MLB21348561&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=20ff6260-9189-447c-9ed5-4e3616b28ea2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>624.33</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -729,32 +729,32 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:190645127#searchVariation=MLB21348561&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=90dfa545-2c06-4ec9-b690-627e6f3df106</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:190645127#searchVariation=MLB24834408&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=20ff6260-9189-447c-9ed5-4e3616b28ea2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>349.33</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:190645127#searchVariation=MLB24834408&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=90dfa545-2c06-4ec9-b690-627e6f3df106</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:190645127#searchVariation=MLB23456525&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=20ff6260-9189-447c-9ed5-4e3616b28ea2</t>
         </is>
       </c>
     </row>
@@ -779,13 +779,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>68.31</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -800,23 +800,23 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:190645127#searchVariation=MLB28722231&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=90dfa545-2c06-4ec9-b690-627e6f3df106</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:190645127#searchVariation=MLB28722231&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=20ff6260-9189-447c-9ed5-4e3616b28ea2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>390.43</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>402.79</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -825,33 +825,33 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:190645127#searchVariation=MLB23456525&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=90dfa545-2c06-4ec9-b690-627e6f3df106</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:190645127#searchVariation=MLB21621306&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=20ff6260-9189-447c-9ed5-4e3616b28ea2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>493.42</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -870,23 +870,23 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:190645127#searchVariation=MLB21621306&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=90dfa545-2c06-4ec9-b690-627e6f3df106</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:190645127#searchVariation=MLB21455208&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=20ff6260-9189-447c-9ed5-4e3616b28ea2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>493.42</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>443.07</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:190645127#searchVariation=MLB21455208&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=90dfa545-2c06-4ec9-b690-627e6f3df106</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:190645127#searchVariation=MLB21320712&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=20ff6260-9189-447c-9ed5-4e3616b28ea2</t>
         </is>
       </c>
     </row>
@@ -915,13 +915,13 @@
           <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>64.59999999999999</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -936,29 +936,25 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:190645127#searchVariation=MLB30476096&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=ee91cc12-d494-44e2-911a-596800a2b4ec</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:190645127#searchVariation=MLB30476096&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=01468f9b-302d-4c82-98db-24830b7db63a</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>493.42</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -966,30 +962,34 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:190645127#searchVariation=MLB25571709&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f8c6b51-282a-45f7-9e26-d0165cf36c25</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:190645127#searchVariation=MLB35970528&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=01468f9b-302d-4c82-98db-24830b7db63a</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>493.42</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -997,12 +997,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:190645127#searchVariation=MLB35970528&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=5f8c6b51-282a-45f7-9e26-d0165cf36c25</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:190645127#searchVariation=MLB25571709&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=01468f9b-302d-4c82-98db-24830b7db63a</t>
         </is>
       </c>
     </row>
@@ -1012,14 +1012,14 @@
           <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>845.87</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:190645127#searchVariation=MLB26091477&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=c323adff-b66f-493a-a171-849a4e57512a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:190645127#searchVariation=MLB26091477&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=01468f9b-302d-4c82-98db-24830b7db63a</t>
         </is>
       </c>
     </row>
@@ -1047,17 +1047,17 @@
           <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>364.95</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>FONTE 60A LITE</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>326.53</v>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3307724882-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd89537bd-c24d-47e8-a46c-c1099c57fe65</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3307724882-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dff793db5-8365-4126-b774-e5797ceb2cd9</t>
         </is>
       </c>
     </row>
@@ -1082,14 +1082,14 @@
           <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1107,42 +1107,42 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166702825-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc06f509f-5d29-41c4-a56b-4255f5a46822</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166702825-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09299a52-21b4-4157-8446-f5765a0751ab</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Automotiva Carregador De Bateria Jfa 60a Storm</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>599.99</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668270466-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db40ad72e-a76f-4aef-9c5d-6440ae297287</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2205907577-fonte-automotiva-carregador-de-bateria-jfa-60a-storm-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df245da5d-ca1b-46bf-87fe-f2e9c6d85d62</t>
         </is>
       </c>
     </row>
@@ -1152,13 +1152,13 @@
           <t>Conversor Rca Comando Remoto Slim Jfa</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>39.9</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -1173,23 +1173,23 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164183594-conversor-rca-comando-remoto-slim-jfa-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1d75efaf-dfd5-490b-87b4-438e9db5dc9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164183594-conversor-rca-comando-remoto-slim-jfa-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df245da5d-ca1b-46bf-87fe-f2e9c6d85d62</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água - Preto</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="C23" t="inlineStr">
+          <t>Jfa Vs5hi - Sequenciador Voltímetro Medidor Bateria Digital</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C23" t="n">
+        <v>57.99</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
@@ -1204,29 +1204,25 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711481213-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1d75efaf-dfd5-490b-87b4-438e9db5dc9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1385929224-jfa-vs5hi-sequenciador-voltimetro-medidor-bateria-digital-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db034d231-ff6b-45e0-81ba-f910e40708df</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>499.46</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água - Preto</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1239,23 +1235,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2773109259-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1d75efaf-dfd5-490b-87b4-438e9db5dc9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2711481213-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db034d231-ff6b-45e0-81ba-f910e40708df</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>473.28</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>499.46</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1269,30 +1265,34 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1312001423-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1d75efaf-dfd5-490b-87b4-438e9db5dc9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2773109259-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db034d231-ff6b-45e0-81ba-f910e40708df</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jfa Vs5hi - Sequenciador Voltímetro Medidor Bateria Digital</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>57.99</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1300,28 +1300,28 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1385929224-jfa-vs5hi-sequenciador-voltimetro-medidor-bateria-digital-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1d75efaf-dfd5-490b-87b4-438e9db5dc9f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668270466-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db034d231-ff6b-45e0-81ba-f910e40708df</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>473.28</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1335,12 +1335,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311998576-fonte-automotiva-120-a-jfa-carregador-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c6ee068-7037-41c9-9478-0025303ca8f0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1312001423-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db034d231-ff6b-45e0-81ba-f910e40708df</t>
         </is>
       </c>
     </row>
@@ -1350,14 +1350,14 @@
           <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1375,25 +1375,29 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2714500016-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c6ee068-7037-41c9-9478-0025303ca8f0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2714500016-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ac84ef3-cdb6-4f79-a91a-cbcd411b36b0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto E Verde Lançamento</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>65.34</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>Fonte Automotiva 120 A Jfa Carregador</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>634.4</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1401,28 +1405,28 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734190611-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c6ee068-7037-41c9-9478-0025303ca8f0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1311998576-fonte-automotiva-120-a-jfa-carregador-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ac84ef3-cdb6-4f79-a91a-cbcd411b36b0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Voltimetro Sequenciador Jfa Vs5hi C/ 5 Saídas Remotas</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>61.38</v>
-      </c>
-      <c r="C30" t="inlineStr">
+          <t>Controle Longa Distancia Jfa K1200 Preto E Verde Lançamento</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C30" t="n">
+        <v>65.34</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1432,12 +1436,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1385926184-voltimetro-sequenciador-jfa-vs5hi-c-5-saidas-remotas-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbe100291-9563-4be8-af0a-53dd7043ab2f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2734190611-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ac84ef3-cdb6-4f79-a91a-cbcd411b36b0</t>
         </is>
       </c>
     </row>
@@ -1447,14 +1451,14 @@
           <t>Nova Fonte Automotiva 60a Amperes Jfa Carregador Storm Novo</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>473.28</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1472,29 +1476,25 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2205960702-nova-fonte-automotiva-60a-amperes-jfa-carregador-storm-novo-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbe100291-9563-4be8-af0a-53dd7043ab2f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2205960702-nova-fonte-automotiva-60a-amperes-jfa-carregador-storm-novo-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ac84ef3-cdb6-4f79-a91a-cbcd411b36b0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120 Amperes Sistema Csi</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Voltimetro Sequenciador Jfa Vs5hi C/ 5 Saídas Remotas</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>61.38</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1507,23 +1507,23 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668350670-fonte-automotiva-jfa-120-amperes-sistema-csi-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbe100291-9563-4be8-af0a-53dd7043ab2f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1385926184-voltimetro-sequenciador-jfa-vs5hi-c-5-saidas-remotas-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd8228cf3-4b7c-47d5-8a4e-15be7b32ecae</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
+          <t>Fonte Automotiva Jfa 120 Amperes Sistema Csi</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>634.4</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1542,24 +1542,24 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2797291983-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbe100291-9563-4be8-af0a-53dd7043ab2f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668350670-fonte-automotiva-jfa-120-amperes-sistema-csi-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd8228cf3-4b7c-47d5-8a4e-15be7b32ecae</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>624.33</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1577,38 +1577,42 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668362898-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D60b8dd23-0888-453a-b9d6-54e9efd1d5ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2797291983-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd8228cf3-4b7c-47d5-8a4e-15be7b32ecae</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Módulo Amplificador Jfa 380x4 Crossover Integrado 4 Canais</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>425.7</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>624.33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3685249297-modulo-amplificador-jfa-380x4-crossover-integrado-4-canais-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D60b8dd23-0888-453a-b9d6-54e9efd1d5ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668362898-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db0cb3b82-2bf6-412e-9aeb-a976bf265058</t>
         </is>
       </c>
     </row>
@@ -1618,14 +1622,14 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>443.07</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1643,7 +1647,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683851635-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D60b8dd23-0888-453a-b9d6-54e9efd1d5ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683851635-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db0cb3b82-2bf6-412e-9aeb-a976bf265058</t>
         </is>
       </c>
     </row>
@@ -1653,14 +1657,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>422.93</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1678,7 +1682,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683826961-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D60b8dd23-0888-453a-b9d6-54e9efd1d5ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683826961-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db0cb3b82-2bf6-412e-9aeb-a976bf265058</t>
         </is>
       </c>
     </row>
@@ -1688,13 +1692,13 @@
           <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>67.5</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
@@ -1709,27 +1713,27 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734228186-controle-longa-distncia-jfa-k1200-pretolaranja-1200mt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bbaee2b-dbeb-44fe-bf26-e32be8783174</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2734228186-controle-longa-distncia-jfa-k1200-pretolaranja-1200mt-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38bdd19c-a013-46d4-ad42-f0af15273171</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
+          <t>Fonte Carregador Jfa Storm Lite 60a 3000 W Preto</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>349.33</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1739,28 +1743,28 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1312001389-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2bbaee2b-dbeb-44fe-bf26-e32be8783174</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668286418-fonte-carregador-jfa-storm-lite-60a-3000-w-preto-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3028e121-2976-44c1-b909-ead4ff560246</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>422.93</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>539.74</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1774,28 +1778,28 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668299414-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668309628-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3028e121-2976-44c1-b909-ead4ff560246</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm Lite 60a 3000 W Preto</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>390.43</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
+          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>443.07</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1814,27 +1818,27 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668286418-fonte-carregador-jfa-storm-lite-60a-3000-w-preto-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2969540561-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3028e121-2976-44c1-b909-ead4ff560246</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>539.74</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>388.69</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1849,24 +1853,24 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668309628-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668323764-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3028e121-2976-44c1-b909-ead4ff560246</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C43" t="inlineStr">
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>FONTE 90 BOB</t>
         </is>
       </c>
+      <c r="C43" t="n">
+        <v>422.93</v>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1879,28 +1883,28 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2969540561-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668299414-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3028e121-2976-44c1-b909-ead4ff560246</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>434.42</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>523.63</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1919,23 +1923,23 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668323764-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684206801-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3028e121-2976-44c1-b909-ead4ff560246</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>443.07</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1954,23 +1958,23 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684206801-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684142123-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3028e121-2976-44c1-b909-ead4ff560246</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
+          <t>Fonte Automotiva Digital Jfa Turbo 70a Bivolt Automática</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>493.42</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1984,28 +1988,28 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684142123-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1312001632-fonte-automotiva-digital-jfa-turbo-70a-bivolt-automatica-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3028e121-2976-44c1-b909-ead4ff560246</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>434.42</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>523.63</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2024,29 +2028,25 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3257194701-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2617179137-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4155ddd0-d277-4e21-9036-af6190af38a4</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Digital Jfa Turbo 70a Bivolt Automática</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>493.42</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>107.04</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2054,28 +2054,28 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1312001632-fonte-automotiva-digital-jfa-turbo-70a-bivolt-automatica-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5564208f-9bc0-43a9-a4d9-53ff8e79dba9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2711628545-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De2f5c6c3-abb3-4014-bacb-8fb913366c43</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>634.4</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2089,28 +2089,28 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2617179137-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09e5d8e0-133c-4c0d-b867-0e28dcfadff3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668299822-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D562e7f00-2c04-426d-b632-fb31150314d4</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>107.04</v>
-      </c>
-      <c r="C50" t="inlineStr">
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C50" t="n">
+        <v>69</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
@@ -2120,28 +2120,28 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711628545-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9ba2333f-e14a-4de5-b90f-86ab74b8f81a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2011900334-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D562e7f00-2c04-426d-b632-fb31150314d4</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>69</v>
-      </c>
-      <c r="C51" t="inlineStr">
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água - Preto</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C51" t="n">
+        <v>95.23</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
@@ -2151,28 +2151,28 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2011900334-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D71f39bc2-2988-4ec8-8111-bc17bf9fc711</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2711623637-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D562e7f00-2c04-426d-b632-fb31150314d4</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Jfa 70a Sci - Fonte Carregador Bateria Inteligente 12v</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>523.63</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2186,30 +2186,34 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668299822-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D40ca2013-7b54-413e-9bab-c165926a94f5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683749493-fonte-jfa-70a-sci-fonte-carregador-bateria-inteligente-12v-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D562e7f00-2c04-426d-b632-fb31150314d4</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água - Preto</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>95.23</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Digital Voltímetro Som</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2222,23 +2226,23 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711623637-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D40ca2013-7b54-413e-9bab-c165926a94f5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683749747-fonte-automotiva-jfa-200a-slim-bivolt-digital-voltimetro-som-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D562e7f00-2c04-426d-b632-fb31150314d4</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Fonte Jfa 70a Sci - Fonte Carregador Bateria Inteligente 12v</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t>Fonte Automotiva 120 A Jfa Carregador Modelo</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2257,23 +2261,23 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683749493-fonte-jfa-70a-sci-fonte-carregador-bateria-inteligente-12v-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D40ca2013-7b54-413e-9bab-c165926a94f5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668286328-fonte-automotiva-120-a-jfa-carregador-modelo-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c1c6fcb-4d62-49ec-b52f-3142723d7479</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Digital Voltímetro Som</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2292,23 +2296,23 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683749747-fonte-automotiva-jfa-200a-slim-bivolt-digital-voltimetro-som-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D40ca2013-7b54-413e-9bab-c165926a94f5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166741154-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c1c6fcb-4d62-49ec-b52f-3142723d7479</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Modelo</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bo</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>624.33</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2322,29 +2326,29 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668286328-fonte-automotiva-120-a-jfa-carregador-modelo-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3c239ea7-add8-4c00-b28b-a985ae7c8fee</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684142641-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bo-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb788f7-4a0d-40d1-b867-15a351779912</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
+          <t>Fonte Carregador Jfa Storm 120a Bivolt Slim</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -2362,27 +2366,27 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166741154-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3c239ea7-add8-4c00-b28b-a985ae7c8fee</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684181783-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb788f7-4a0d-40d1-b867-15a351779912</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bo</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
+          <t>Fonte Automotiva Jfa 120a Slim Bivolt Voltímetro Digital Som</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>778.05</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2397,24 +2401,24 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684142641-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bo-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D62f0ada9-07df-4166-b065-f516bad15649</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668285660-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb788f7-4a0d-40d1-b867-15a351779912</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 120a Bivolt Slim</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
+          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -2432,25 +2436,29 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684181783-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D62f0ada9-07df-4166-b065-f516bad15649</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668338738-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb788f7-4a0d-40d1-b867-15a351779912</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Slim Bivolt Voltímetro Digital Som</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>778.05</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>805.59</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2463,23 +2471,23 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668285660-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D62f0ada9-07df-4166-b065-f516bad15649</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683813733-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D75224745-31d2-41f6-acb0-21580bb003d4</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Carregador Jfa Bob 200</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>624.33</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2493,12 +2501,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668338738-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D62f0ada9-07df-4166-b065-f516bad15649</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684168355-fonte-carregador-jfa-bob-200-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D75224745-31d2-41f6-acb0-21580bb003d4</t>
         </is>
       </c>
     </row>
@@ -2508,13 +2516,13 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>845.87</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2528,34 +2536,30 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683813733-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04ca6133-9572-41b3-bc8f-d5a49227e3d6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668325630-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D75224745-31d2-41f6-acb0-21580bb003d4</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distancia Jfa K1200 Preto E Verde Lançamento</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>65.16</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2568,29 +2572,25 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684168355-fonte-carregador-jfa-bob-200-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04ca6133-9572-41b3-bc8f-d5a49227e3d6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2734211670-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1a117ea5-9169-401f-8b0d-19cec5f716c5</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>96.23</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2598,28 +2598,28 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668325630-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04ca6133-9572-41b3-bc8f-d5a49227e3d6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683735209-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8e39cf56-35fa-49c2-885f-abce7d3d3955</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto E Verde Lançamento</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>65.16</v>
-      </c>
-      <c r="C65" t="inlineStr">
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C65" t="n">
+        <v>107.04</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
@@ -2629,28 +2629,28 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734211670-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c9fb6d8-eb86-427a-a81d-f6921f8f45e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684155913-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8e39cf56-35fa-49c2-885f-abce7d3d3955</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>96.23</v>
-      </c>
-      <c r="C66" t="inlineStr">
+          <t>Controle Longa Distancia Completo Jfa Branco / Cinza K600</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C66" t="n">
+        <v>78</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
@@ -2660,28 +2660,28 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683735209-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c9fb6d8-eb86-427a-a81d-f6921f8f45e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1550166570-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7258942d-5fca-428d-96b5-439fca3d6e61</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>107.04</v>
-      </c>
-      <c r="C67" t="inlineStr">
+          <t>Conversor Jfa Slim Rca Comando Remoto</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C67" t="n">
+        <v>55</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
@@ -2696,25 +2696,29 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684155913-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daadeda3b-d71f-4749-8ef9-dea45fd92dac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164196082-conversor-jfa-slim-rca-comando-remoto-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7258942d-5fca-428d-96b5-439fca3d6e61</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Completo Jfa Branco / Cinza K600</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>78</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2727,25 +2731,29 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1550166570-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daadeda3b-d71f-4749-8ef9-dea45fd92dac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684194497-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D74834dd0-8d0b-417b-bed5-961f8345d3f3</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Conversor Jfa Slim Rca Comando Remoto</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>55</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bo</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>624.33</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2753,12 +2761,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164196082-conversor-jfa-slim-rca-comando-remoto-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfad8c3e1-90f3-4fa2-971d-e0f89118c99f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684245311-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bo-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D74834dd0-8d0b-417b-bed5-961f8345d3f3</t>
         </is>
       </c>
     </row>
@@ -2768,13 +2776,13 @@
           <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>805.59</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2788,34 +2796,30 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684194497-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04eef143-e553-470d-9406-c0e81b2952b7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683747997-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D593a9c2e-c8d6-46fe-8cd4-3bc74734d624</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bo</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>68.19</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2828,29 +2832,25 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684245311-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bo-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04eef143-e553-470d-9406-c0e81b2952b7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684141331-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4e7760ee-1ee3-4956-a953-cad1842fade0</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2858,28 +2858,28 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683747997-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc95d6e8f-3d5c-4762-91bf-d325b14611d7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4663856102-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db24a7e65-e475-44cb-b8fd-f15064cd0462</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>68.19</v>
-      </c>
-      <c r="C73" t="inlineStr">
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C73" t="n">
+        <v>64.87</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
@@ -2894,25 +2894,29 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684141331-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38e9f541-8e42-45a6-9837-38ca5f0e22da</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668309598-controle-remoto-universal-longa-jfa-k1200-preto-c-verde-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db24a7e65-e475-44cb-b8fd-f15064cd0462</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>326.53</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2920,63 +2924,63 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4663856102-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2d5f973b-c4a7-4eb4-887e-72d64bef2411</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684181739-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Def0d4450-c232-4088-b2d0-d188235e82ad</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>64.87</v>
-      </c>
-      <c r="C75" t="inlineStr">
+          <t xml:space="preserve"> Módulo Amplificador Jfa 380x4 Crossover Integrado 4 Canais</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C75" t="n">
+        <v>425.7</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668309598-controle-remoto-universal-longa-jfa-k1200-preto-c-verde-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2d5f973b-c4a7-4eb4-887e-72d64bef2411</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3685249297-modulo-amplificador-jfa-380x4-crossover-integrado-4-canais-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Def0d4450-c232-4088-b2d0-d188235e82ad</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>364.95</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
+          <t>Fonte Carregador Jfa Storm 70a Lite Bivolt - 12v</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>365.71</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2991,23 +2995,23 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684181739-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38cdf9da-e677-4ef8-908b-21b3e027b263</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3307301267-fonte-carregador-jfa-storm-70a-lite-bivolt-12v-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfb04be31-e4c0-40f2-93e6-ce4d945fdad1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 70a Lite Bivolt - 12v</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>408.73</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
+          <t>Fonte Carregador Automotiva 120a Amperes Jfa Carregador</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3021,28 +3025,28 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3307301267-fonte-carregador-jfa-storm-70a-lite-bivolt-12v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6c4be33a-225a-468f-b44f-3ada4e975377</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166850850-fonte-carregador-automotiva-120a-amperes-jfa-carregador-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfb04be31-e4c0-40f2-93e6-ce4d945fdad1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva 120a Amperes Jfa Carregador</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Automotiva 120 A Jfa Carregador</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>634.4</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3056,32 +3060,32 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166850850-fonte-carregador-automotiva-120a-amperes-jfa-carregador-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6c4be33a-225a-468f-b44f-3ada4e975377</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1311998556-fonte-automotiva-120-a-jfa-carregador-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D390a3938-63df-4a57-aaae-ff74cc30e8a4</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>388.69</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3091,12 +3095,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311998556-fonte-automotiva-120-a-jfa-carregador-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7087cf51-7bf8-4133-861d-dff383586b0f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3257194701-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D390a3938-63df-4a57-aaae-ff74cc30e8a4</t>
         </is>
       </c>
     </row>
@@ -3106,14 +3110,14 @@
           <t>Nova Fonte Automotiva 70a Amperes Jfa Carregador Storm Novo</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
         <v>493.42</v>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -3131,7 +3135,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2621269843-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7087cf51-7bf8-4133-861d-dff383586b0f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2621269843-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D530edfcd-a2d4-41fe-8086-7f9bbe092f87</t>
         </is>
       </c>
     </row>
@@ -3141,13 +3145,13 @@
           <t>Controle Longa Distancia K1200 Jfa Preto Com Laranja</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
         <v>66.2</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
@@ -3162,7 +3166,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734195628-controle-longa-distancia-k1200-jfa-preto-com-laranja-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db53ab433-9a65-40b6-83ea-6923bfd9daaf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2734195628-controle-longa-distancia-k1200-jfa-preto-com-laranja-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D218560d8-6b47-4bf6-80c8-3d6989c5b49e</t>
         </is>
       </c>
     </row>
@@ -3172,13 +3176,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 2 Cores</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
         <v>69.44</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
@@ -3193,7 +3197,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734209043-controle-remoto-universal-longa-distncia-jfa-k1200-2-cores-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db53ab433-9a65-40b6-83ea-6923bfd9daaf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2734209043-controle-remoto-universal-longa-distncia-jfa-k1200-2-cores-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D218560d8-6b47-4bf6-80c8-3d6989c5b49e</t>
         </is>
       </c>
     </row>
@@ -3203,13 +3207,13 @@
           <t>Módulo Amplificador Jfa 380x4 Crossover Integrado 4 Canais</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
         <v>445</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
@@ -3224,7 +3228,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3686292837-modulo-amplificador-jfa-380x4-crossover-integrado-4-canais-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3e45a9f-3bc3-4691-a2ce-f76a4973efbd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3686292837-modulo-amplificador-jfa-380x4-crossover-integrado-4-canais-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D218560d8-6b47-4bf6-80c8-3d6989c5b49e</t>
         </is>
       </c>
     </row>
@@ -3234,14 +3238,14 @@
           <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
         <v>523.63</v>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -3259,7 +3263,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684220337-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3e45a9f-3bc3-4691-a2ce-f76a4973efbd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684220337-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D218560d8-6b47-4bf6-80c8-3d6989c5b49e</t>
         </is>
       </c>
     </row>

--- a/dados/topshitech.xlsx
+++ b/dados/topshitech.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,28 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:190645127#searchVariation=MLB22144397&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=09e65299-fcb1-44c3-9529-0cb0b64de926</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:190645127#searchVariation=MLB22144397&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=ced003ae-fd26-4ffe-bd75-26044b27d928</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>95.26000000000001</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>443.07</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -532,23 +536,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:190645127#searchVariation=MLB27685629&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=09e65299-fcb1-44c3-9529-0cb0b64de926</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:190645127#searchVariation=MLB21320712&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=ced003ae-fd26-4ffe-bd75-26044b27d928</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>634.4</v>
+        <v>422.93</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -567,28 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:190645127#searchVariation=MLB21392652&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=09e65299-fcb1-44c3-9529-0cb0b64de926</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:190645127#searchVariation=MLB21562641&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=ced003ae-fd26-4ffe-bd75-26044b27d928</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>402.79</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -598,25 +606,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:190645127#searchVariation=MLB27687422&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=09e65299-fcb1-44c3-9529-0cb0b64de926</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:190645127#searchVariation=MLB21621306&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=ced003ae-fd26-4ffe-bd75-26044b27d928</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>95.26000000000001</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -629,23 +641,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:190645127#searchVariation=MLB32364344&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=09e65299-fcb1-44c3-9529-0cb0b64de926</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:190645127#searchVariation=MLB27685629&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=ced003ae-fd26-4ffe-bd75-26044b27d928</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>422.93</v>
+        <v>634.4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -664,27 +676,27 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:190645127#searchVariation=MLB21562641&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=09e65299-fcb1-44c3-9529-0cb0b64de926</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:190645127#searchVariation=MLB21392652&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=ced003ae-fd26-4ffe-bd75-26044b27d928</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>845.87</v>
+        <v>96.23</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -694,32 +706,32 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:190645127#searchVariation=MLB21348561&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=20ff6260-9189-447c-9ed5-4e3616b28ea2</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:190645127#searchVariation=MLB28557249&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=ced003ae-fd26-4ffe-bd75-26044b27d928</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>624.33</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -734,23 +746,23 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:190645127#searchVariation=MLB24834408&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=20ff6260-9189-447c-9ed5-4e3616b28ea2</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:190645127#searchVariation=MLB27687422&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=ced003ae-fd26-4ffe-bd75-26044b27d928</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>349.33</v>
+        <v>54.51</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -764,30 +776,34 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:190645127#searchVariation=MLB23456525&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=20ff6260-9189-447c-9ed5-4e3616b28ea2</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:190645127#searchVariation=MLB28722231&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=ced003ae-fd26-4ffe-bd75-26044b27d928</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>68.31</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>845.87</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -800,23 +816,23 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:190645127#searchVariation=MLB28722231&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=20ff6260-9189-447c-9ed5-4e3616b28ea2</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:190645127#searchVariation=MLB21348561&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=a0e5b30a-a16a-4fda-b0ff-09c29ad1a731</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>402.79</v>
+        <v>624.33</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -825,7 +841,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -835,23 +851,23 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:190645127#searchVariation=MLB21621306&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=20ff6260-9189-447c-9ed5-4e3616b28ea2</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:190645127#searchVariation=MLB24834408&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=a0e5b30a-a16a-4fda-b0ff-09c29ad1a731</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>493.42</v>
+        <v>536.26</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -870,23 +886,23 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:190645127#searchVariation=MLB21455208&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=20ff6260-9189-447c-9ed5-4e3616b28ea2</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:190645127#searchVariation=MLB23998473&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=a0e5b30a-a16a-4fda-b0ff-09c29ad1a731</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>443.07</v>
+        <v>493.42</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -905,7 +921,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:190645127#searchVariation=MLB21320712&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=20ff6260-9189-447c-9ed5-4e3616b28ea2</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:190645127#searchVariation=MLB21455208&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=9075c887-3842-489e-a135-644a60b83634</t>
         </is>
       </c>
     </row>
@@ -917,13 +933,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>64.59999999999999</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -936,25 +956,29 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:190645127#searchVariation=MLB30476096&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=01468f9b-302d-4c82-98db-24830b7db63a</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:190645127#searchVariation=MLB30476096&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=cbaa8dec-2dc2-4991-80a8-73b17f694bf6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>845.87</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -967,29 +991,25 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:190645127#searchVariation=MLB35970528&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=01468f9b-302d-4c82-98db-24830b7db63a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:190645127#searchVariation=MLB26091477&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=cbaa8dec-2dc2-4991-80a8-73b17f694bf6</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
+          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>493.42</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -997,34 +1017,30 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:190645127#searchVariation=MLB25571709&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=01468f9b-302d-4c82-98db-24830b7db63a</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:190645127#searchVariation=MLB35970528&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=cbaa8dec-2dc2-4991-80a8-73b17f694bf6</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>402.79</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1032,37 +1048,37 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:190645127#searchVariation=MLB26091477&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=01468f9b-302d-4c82-98db-24830b7db63a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:190645127#searchVariation=MLB33435981&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=cbaa8dec-2dc2-4991-80a8-73b17f694bf6</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>326.53</v>
+        <v>493.42</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1072,7 +1088,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3307724882-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dff793db5-8365-4126-b774-e5797ceb2cd9</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:190645127#searchVariation=MLB25571709&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=c9463565-9f1a-4dc8-82b7-811707944cb6</t>
         </is>
       </c>
     </row>
@@ -1107,60 +1123,60 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166702825-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09299a52-21b4-4157-8446-f5765a0751ab</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166702825-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6213945b-959f-4410-9b69-4ea7ebb8bf08</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa 60a Storm</t>
+          <t>Conversor Rca Comando Remoto Slim Jfa</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>599.99</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>39.9</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2205907577-fonte-automotiva-carregador-de-bateria-jfa-60a-storm-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df245da5d-ca1b-46bf-87fe-f2e9c6d85d62</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164183594-conversor-rca-comando-remoto-slim-jfa-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6213945b-959f-4410-9b69-4ea7ebb8bf08</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Conversor Rca Comando Remoto Slim Jfa</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>499.46</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1168,30 +1184,34 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164183594-conversor-rca-comando-remoto-slim-jfa-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df245da5d-ca1b-46bf-87fe-f2e9c6d85d62</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2773109259-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6213945b-959f-4410-9b69-4ea7ebb8bf08</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jfa Vs5hi - Sequenciador Voltímetro Medidor Bateria Digital</t>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água - Preto</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>57.99</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1204,25 +1224,29 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1385929224-jfa-vs5hi-sequenciador-voltimetro-medidor-bateria-digital-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db034d231-ff6b-45e0-81ba-f910e40708df</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2711481213-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D89ac5444-ddee-4af8-842a-7ae273bdd8d0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água - Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>624.33</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1235,29 +1259,25 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711481213-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db034d231-ff6b-45e0-81ba-f910e40708df</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668362898-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D89ac5444-ddee-4af8-842a-7ae273bdd8d0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
+          <t>Jfa Vs5hi - Sequenciador Voltímetro Medidor Bateria Digital</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>499.46</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>57.99</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1270,23 +1290,23 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2773109259-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db034d231-ff6b-45e0-81ba-f910e40708df</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1385929224-jfa-vs5hi-sequenciador-voltimetro-medidor-bateria-digital-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D89ac5444-ddee-4af8-842a-7ae273bdd8d0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa Storm Lite 200a Bivolt - 12v</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>674.6799999999999</v>
+        <v>716.71</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1305,23 +1325,23 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668270466-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db034d231-ff6b-45e0-81ba-f910e40708df</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3257272385-fonte-carregador-jfa-storm-lite-200a-bivolt-12v-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D89ac5444-ddee-4af8-842a-7ae273bdd8d0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
+          <t>Fonte Carregador Jfa Storm Lite 200a Bivolt - 12v</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>473.28</v>
+        <v>716.71</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1340,7 +1360,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1312001423-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db034d231-ff6b-45e0-81ba-f910e40708df</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3257272385-fonte-carregador-jfa-storm-lite-200a-bivolt-12v-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabb57d4-a17b-4a6f-9380-695490cbd024</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1376,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>694.8200000000001</v>
+        <v>624.33</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1370,32 +1390,32 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2714500016-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ac84ef3-cdb6-4f79-a91a-cbcd411b36b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2797291983-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabb57d4-a17b-4a6f-9380-695490cbd024</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto E Verde Lançamento</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>634.4</v>
+        <v>65.34</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1405,30 +1425,34 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311998576-fonte-automotiva-120-a-jfa-carregador-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ac84ef3-cdb6-4f79-a91a-cbcd411b36b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2734190611-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabb57d4-a17b-4a6f-9380-695490cbd024</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto E Verde Lançamento</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>65.34</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1441,23 +1465,23 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734190611-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ac84ef3-cdb6-4f79-a91a-cbcd411b36b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668270466-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabb57d4-a17b-4a6f-9380-695490cbd024</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Nova Fonte Automotiva 60a Amperes Jfa Carregador Storm Novo</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>473.28</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1476,25 +1500,29 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2205960702-nova-fonte-automotiva-60a-amperes-jfa-carregador-storm-novo-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ac84ef3-cdb6-4f79-a91a-cbcd411b36b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2714500016-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabb57d4-a17b-4a6f-9380-695490cbd024</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Voltimetro Sequenciador Jfa Vs5hi C/ 5 Saídas Remotas</t>
+          <t>Fonte Automotiva 120 A Jfa Carregador</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>61.38</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1507,7 +1535,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1385926184-voltimetro-sequenciador-jfa-vs5hi-c-5-saidas-remotas-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd8228cf3-4b7c-47d5-8a4e-15be7b32ecae</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1311998576-fonte-automotiva-120-a-jfa-carregador-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfabb57d4-a17b-4a6f-9380-695490cbd024</t>
         </is>
       </c>
     </row>
@@ -1542,29 +1570,25 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668350670-fonte-automotiva-jfa-120-amperes-sistema-csi-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd8228cf3-4b7c-47d5-8a4e-15be7b32ecae</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668350670-fonte-automotiva-jfa-120-amperes-sistema-csi-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88c01776-3f07-4f04-9d89-4c86cac76bcc</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+          <t>Voltimetro Sequenciador Jfa Vs5hi C/ 5 Saídas Remotas</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>61.38</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1577,27 +1601,27 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2797291983-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd8228cf3-4b7c-47d5-8a4e-15be7b32ecae</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1385926184-voltimetro-sequenciador-jfa-vs5hi-c-5-saidas-remotas-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88c01776-3f07-4f04-9d89-4c86cac76bcc</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
+          <t>Controle Longa Distancia Jfa Red Line Wr Completo Vermelho</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>624.33</v>
+        <v>96.23</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1612,14 +1636,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668362898-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db0cb3b82-2bf6-412e-9aeb-a976bf265058</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1967855758-controle-longa-distancia-jfa-red-line-wr-completo-vermelho-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88c01776-3f07-4f04-9d89-4c86cac76bcc</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Nova Fonte Automotiva 60a Amperes Jfa Carregador Storm Novo</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1628,7 +1652,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>443.07</v>
+        <v>473.28</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1642,28 +1666,28 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683851635-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db0cb3b82-2bf6-412e-9aeb-a976bf265058</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2205960702-nova-fonte-automotiva-60a-amperes-jfa-carregador-storm-novo-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De5e04119-b6df-4c81-999b-99e29f9079ce</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>422.93</v>
+        <v>681.83</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1682,14 +1706,14 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683826961-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db0cb3b82-2bf6-412e-9aeb-a976bf265058</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3264899643-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De5e04119-b6df-4c81-999b-99e29f9079ce</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t xml:space="preserve"> Módulo Amplificador Jfa 380x4 Crossover Integrado 4 Canais</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1698,42 +1722,42 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>67.5</v>
+        <v>425.7</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734228186-controle-longa-distncia-jfa-k1200-pretolaranja-1200mt-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38bdd19c-a013-46d4-ad42-f0af15273171</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3685249297-modulo-amplificador-jfa-380x4-crossover-integrado-4-canais-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De5e04119-b6df-4c81-999b-99e29f9079ce</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm Lite 60a 3000 W Preto</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 2 Cores</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>349.33</v>
+        <v>69.44</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1748,27 +1772,27 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668286418-fonte-carregador-jfa-storm-lite-60a-3000-w-preto-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3028e121-2976-44c1-b909-ead4ff560246</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2734209043-controle-remoto-universal-longa-distncia-jfa-k1200-2-cores-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D237dcae3-123d-40f2-bec4-7616097657ec</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>539.74</v>
+        <v>67.5</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1778,24 +1802,24 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668309628-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3028e121-2976-44c1-b909-ead4ff560246</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2734228186-controle-longa-distncia-jfa-k1200-pretolaranja-1200mt-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D237dcae3-123d-40f2-bec4-7616097657ec</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1813,32 +1837,32 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2969540561-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3028e121-2976-44c1-b909-ead4ff560246</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683851635-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D237dcae3-123d-40f2-bec4-7616097657ec</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>388.69</v>
+        <v>539.74</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1853,23 +1877,23 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668323764-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3028e121-2976-44c1-b909-ead4ff560246</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668309628-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D635512a2-c290-4a15-8df9-c7119cde45ac</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
+          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>422.93</v>
+        <v>443.07</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1888,7 +1912,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668299414-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3028e121-2976-44c1-b909-ead4ff560246</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1312001389-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D635512a2-c290-4a15-8df9-c7119cde45ac</t>
         </is>
       </c>
     </row>
@@ -1923,23 +1947,23 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684206801-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3028e121-2976-44c1-b909-ead4ff560246</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684206801-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D635512a2-c290-4a15-8df9-c7119cde45ac</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>443.07</v>
+        <v>434.42</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1958,23 +1982,23 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684142123-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3028e121-2976-44c1-b909-ead4ff560246</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668323764-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D635512a2-c290-4a15-8df9-c7119cde45ac</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Digital Jfa Turbo 70a Bivolt Automática</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>493.42</v>
+        <v>422.93</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1993,23 +2017,23 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1312001632-fonte-automotiva-digital-jfa-turbo-70a-bivolt-automatica-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3028e121-2976-44c1-b909-ead4ff560246</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683826961-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D635512a2-c290-4a15-8df9-c7119cde45ac</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>523.63</v>
+        <v>473.28</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2028,25 +2052,29 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2617179137-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4155ddd0-d277-4e21-9036-af6190af38a4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1312001423-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D635512a2-c290-4a15-8df9-c7119cde45ac</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>107.04</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+        <v>422.93</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2054,28 +2082,28 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711628545-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De2f5c6c3-abb3-4014-bacb-8fb913366c43</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668299414-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D635512a2-c290-4a15-8df9-c7119cde45ac</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>634.4</v>
+        <v>573.36</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2089,30 +2117,34 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668299822-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D562e7f00-2c04-426d-b632-fb31150314d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3307002900-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D635512a2-c290-4a15-8df9-c7119cde45ac</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Jfa K1200 Controle Longa Distancia 1200 Metros Azul</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>69</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+        <v>68.31</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2120,19 +2152,19 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2011900334-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D562e7f00-2c04-426d-b632-fb31150314d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2011925397-jfa-k1200-controle-longa-distancia-1200-metros-azul-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9f289bd0-a7ab-4771-a7b6-c5d70e4f4460</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água - Preto</t>
+          <t>Controle Jfa Red Line Longa Distância</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2141,7 +2173,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>95.23</v>
+        <v>107.04</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
@@ -2156,14 +2188,14 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711623637-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D562e7f00-2c04-426d-b632-fb31150314d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1343000452-controle-jfa-red-line-longa-distncia-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De984dbd9-d136-45be-99dc-efd17f0ae4dd</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Fonte Jfa 70a Sci - Fonte Carregador Bateria Inteligente 12v</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2191,23 +2223,23 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683749493-fonte-jfa-70a-sci-fonte-carregador-bateria-inteligente-12v-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D562e7f00-2c04-426d-b632-fb31150314d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2617179137-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D032f631b-56d9-4faa-a9c6-6f0c96927140</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Digital Voltímetro Som</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>845.87</v>
+        <v>634.4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2221,28 +2253,28 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683749747-fonte-automotiva-jfa-200a-slim-bivolt-digital-voltimetro-som-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D562e7f00-2c04-426d-b632-fb31150314d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668299822-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D85fbf713-e4e0-45d8-988b-e2eba5672f25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Modelo</t>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Digital Voltímetro Som</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>674.6799999999999</v>
+        <v>845.87</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2261,27 +2293,27 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668286328-fonte-automotiva-120-a-jfa-carregador-modelo-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c1c6fcb-4d62-49ec-b52f-3142723d7479</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683749747-fonte-automotiva-jfa-200a-slim-bivolt-digital-voltimetro-som-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b41568e-9904-447f-a47b-471ce4722a73</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água - Preto</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>674.6799999999999</v>
+        <v>95.23</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2296,27 +2328,27 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166741154-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c1c6fcb-4d62-49ec-b52f-3142723d7479</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2711623637-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b41568e-9904-447f-a47b-471ce4722a73</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bo</t>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>624.33</v>
+        <v>107.04</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2326,28 +2358,28 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684142641-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bo-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb788f7-4a0d-40d1-b867-15a351779912</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2711628545-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b41568e-9904-447f-a47b-471ce4722a73</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 120a Bivolt Slim</t>
+          <t>Fonte Jfa 70a Sci - Fonte Carregador Bateria Inteligente 12v</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>674.6799999999999</v>
+        <v>523.63</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2366,27 +2398,27 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684181783-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb788f7-4a0d-40d1-b867-15a351779912</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683749493-fonte-jfa-70a-sci-fonte-carregador-bateria-inteligente-12v-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd395d0e9-9cf8-4ad2-a961-769cde34bc7a</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bo</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>778.05</v>
+        <v>624.33</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2401,7 +2433,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668285660-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb788f7-4a0d-40d1-b867-15a351779912</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684142641-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bo-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd395d0e9-9cf8-4ad2-a961-769cde34bc7a</t>
         </is>
       </c>
     </row>
@@ -2436,23 +2468,23 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668338738-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbeb788f7-4a0d-40d1-b867-15a351779912</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166741154-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd395d0e9-9cf8-4ad2-a961-769cde34bc7a</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Automotiva 120 A Jfa Carregador Modelo</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>805.59</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2466,28 +2498,28 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683813733-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D75224745-31d2-41f6-acb0-21580bb003d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668286328-fonte-automotiva-120-a-jfa-carregador-modelo-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd395d0e9-9cf8-4ad2-a961-769cde34bc7a</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>624.33</v>
+        <v>536.26</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2506,7 +2538,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684168355-fonte-carregador-jfa-bob-200-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D75224745-31d2-41f6-acb0-21580bb003d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668309502-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-c-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd395d0e9-9cf8-4ad2-a961-769cde34bc7a</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2554,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>845.87</v>
+        <v>805.59</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2536,30 +2568,34 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668325630-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D75224745-31d2-41f6-acb0-21580bb003d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683813733-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c82eb67-76aa-4480-bf69-7d10b1ad84d5</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto E Verde Lançamento</t>
+          <t>Fonte Carregador Jfa Storm 120a Bivolt Slim</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>65.16</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2567,19 +2603,19 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734211670-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1a117ea5-9169-401f-8b0d-19cec5f716c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684181783-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c82eb67-76aa-4480-bf69-7d10b1ad84d5</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2588,7 +2624,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>96.23</v>
+        <v>433</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
@@ -2598,30 +2634,34 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683735209-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8e39cf56-35fa-49c2-885f-abce7d3d3955</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4102740348-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c82eb67-76aa-4480-bf69-7d10b1ad84d5</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+          <t>Fonte Automotiva Jfa 120a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>107.04</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
+        <v>778.05</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2629,30 +2669,34 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684155913-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8e39cf56-35fa-49c2-885f-abce7d3d3955</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668285660-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c82eb67-76aa-4480-bf69-7d10b1ad84d5</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Completo Jfa Branco / Cinza K600</t>
+          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>78</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2665,25 +2709,29 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1550166570-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7258942d-5fca-428d-96b5-439fca3d6e61</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668338738-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c82eb67-76aa-4480-bf69-7d10b1ad84d5</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Conversor Jfa Slim Rca Comando Remoto</t>
+          <t>Fonte Carregador Jfa Bob 200</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>55</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>624.33</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2691,12 +2739,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164196082-conversor-jfa-slim-rca-comando-remoto-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7258942d-5fca-428d-96b5-439fca3d6e61</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684168355-fonte-carregador-jfa-bob-200-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a93d1c4-095c-4e8c-81aa-dfec9395dd05</t>
         </is>
       </c>
     </row>
@@ -2731,23 +2779,23 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684194497-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D74834dd0-8d0b-417b-bed5-961f8345d3f3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684194497-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3beee14e-00c6-4ae5-9b3c-865adf8bfca5</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bo</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>624.33</v>
+        <v>845.87</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2761,32 +2809,32 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684245311-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bo-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D74834dd0-8d0b-417b-bed5-961f8345d3f3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668325630-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3beee14e-00c6-4ae5-9b3c-865adf8bfca5</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto E Verde Lançamento</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>805.59</v>
+        <v>65.16</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2801,25 +2849,29 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683747997-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D593a9c2e-c8d6-46fe-8cd4-3bc74734d624</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2734211670-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3beee14e-00c6-4ae5-9b3c-865adf8bfca5</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>68.19</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
+        <v>96.23</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2832,25 +2884,29 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684141331-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4e7760ee-1ee3-4956-a953-cad1842fade0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683735209-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dce3a9662-cd76-43f1-88da-92829a3daff0</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
+        <v>107.04</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2863,14 +2919,14 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4663856102-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db24a7e65-e475-44cb-b8fd-f15064cd0462</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684155913-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dce3a9662-cd76-43f1-88da-92829a3daff0</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Conversor Jfa Slim Rca Comando Remoto</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2879,7 +2935,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>64.87</v>
+        <v>55</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
@@ -2889,32 +2945,32 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4668309598-controle-remoto-universal-longa-jfa-k1200-preto-c-verde-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db24a7e65-e475-44cb-b8fd-f15064cd0462</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164196082-conversor-jfa-slim-rca-comando-remoto-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dda05706d-e358-4bfa-b8a6-78e215f73288</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bo</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>326.53</v>
+        <v>624.33</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2929,58 +2985,62 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684181739-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Def0d4450-c232-4088-b2d0-d188235e82ad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684245311-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bo-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D86b67cd4-526a-458e-9f6d-746873a10a53</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Módulo Amplificador Jfa 380x4 Crossover Integrado 4 Canais</t>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>425.7</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
+        <v>805.59</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3685249297-modulo-amplificador-jfa-380x4-crossover-integrado-4-canais-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Def0d4450-c232-4088-b2d0-d188235e82ad</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683747997-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d08b9bc-818b-4701-b2e8-2269cfbe3a6e</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 70a Lite Bivolt - 12v</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>365.71</v>
+        <v>68.19</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2995,27 +3055,27 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3307301267-fonte-carregador-jfa-storm-70a-lite-bivolt-12v-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfb04be31-e4c0-40f2-93e6-ce4d945fdad1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684141331-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De1e25113-4fac-4d05-b0b5-37e194f2e96b</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva 120a Amperes Jfa Carregador</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>674.6799999999999</v>
+        <v>72.2</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3030,27 +3090,27 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166850850-fonte-carregador-automotiva-120a-amperes-jfa-carregador-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfb04be31-e4c0-40f2-93e6-ce4d945fdad1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4663856102-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45a67f61-72ba-4b1e-8d9a-e0da646682f0</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador</t>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>634.4</v>
+        <v>64.87</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3065,27 +3125,27 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311998556-fonte-automotiva-120-a-jfa-carregador-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D390a3938-63df-4a57-aaae-ff74cc30e8a4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4668309598-controle-remoto-universal-longa-jfa-k1200-preto-c-verde-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45a67f61-72ba-4b1e-8d9a-e0da646682f0</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>388.69</v>
+        <v>443.07</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3100,23 +3160,23 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3257194701-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D390a3938-63df-4a57-aaae-ff74cc30e8a4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3684142123-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5cab9fd8-c462-4df7-ad14-cded440f206c</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Nova Fonte Automotiva 70a Amperes Jfa Carregador Storm Novo</t>
+          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>493.42</v>
+        <v>443.07</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3130,30 +3190,34 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2621269843-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D530edfcd-a2d4-41fe-8086-7f9bbe092f87</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2969540561-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5cab9fd8-c462-4df7-ad14-cded440f206c</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia K1200 Jfa Preto Com Laranja</t>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="D81" t="inlineStr"/>
+        <v>573.36</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3166,25 +3230,29 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734195628-controle-longa-distancia-k1200-jfa-preto-com-laranja-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D218560d8-6b47-4bf6-80c8-3d6989c5b49e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3311602994-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5cab9fd8-c462-4df7-ad14-cded440f206c</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 2 Cores</t>
+          <t>Fonte Carregador Jfa Storm 70a Lite Bivolt - 12v</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>69.44</v>
-      </c>
-      <c r="D82" t="inlineStr"/>
+        <v>408.73</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3192,30 +3260,34 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734209043-controle-remoto-universal-longa-distncia-jfa-k1200-2-cores-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D218560d8-6b47-4bf6-80c8-3d6989c5b49e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3307301267-fonte-carregador-jfa-storm-70a-lite-bivolt-12v-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5cab9fd8-c462-4df7-ad14-cded440f206c</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Módulo Amplificador Jfa 380x4 Crossover Integrado 4 Canais</t>
+          <t>Fonte Automotiva Digital Jfa Turbo 70a Bivolt Automática</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>445</v>
-      </c>
-      <c r="D83" t="inlineStr"/>
+        <v>493.42</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3228,42 +3300,248 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3686292837-modulo-amplificador-jfa-380x4-crossover-integrado-4-canais-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D218560d8-6b47-4bf6-80c8-3d6989c5b49e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1312001632-fonte-automotiva-digital-jfa-turbo-70a-bivolt-automatica-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5cab9fd8-c462-4df7-ad14-cded440f206c</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>Fonte Carregador Automotiva 120a Amperes Jfa Carregador</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2166850850-fonte-carregador-automotiva-120a-amperes-jfa-carregador-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5cab9fd8-c462-4df7-ad14-cded440f206c</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120 A Jfa Carregador</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>634.4</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1311998556-fonte-automotiva-120-a-jfa-carregador-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D18ad8744-5ee0-4fbc-905d-b85d01bfb66c</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Nova Fonte Automotiva 70a Amperes Jfa Carregador Storm Novo</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>493.42</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2621269843-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D35b593d4-aed5-40cf-9073-d505055bb319</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>434.42</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3257194701-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dde8a24e1-9c62-43bf-a3ca-d15f3d2d403f</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia K1200 Jfa Preto Com Laranja</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2734195628-controle-longa-distancia-k1200-jfa-preto-com-laranja-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dde8a24e1-9c62-43bf-a3ca-d15f3d2d403f</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Módulo Amplificador Jfa 380x4 Crossover Integrado 4 Canais</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>445</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3686292837-modulo-amplificador-jfa-380x4-crossover-integrado-4-canais-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df534fc42-0234-4b91-a392-9b38db8c2f46</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
           <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>FONTE 70A STORM</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="C90" t="n">
         <v>523.63</v>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3684220337-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D218560d8-6b47-4bf6-80c8-3d6989c5b49e</t>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684220337-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df534fc42-0234-4b91-a392-9b38db8c2f46</t>
         </is>
       </c>
     </row>

--- a/dados/topshitech.xlsx
+++ b/dados/topshitech.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,3896 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>nome</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>preco</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>tipo</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>96.23</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:190645127#wid=MLB4547706362&amp;sid=search&amp;searchVariation=MLB28557249&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=c0043f65-721b-4ec5-9582-0e7faeaacb95</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>514.45</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:190645127#wid=MLB3376111809&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=9f74909c-338d-419c-8ebc-9a49f6ed0b4b</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>643.0599999999999</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:190645127#wid=MLB4370662384&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=9f74909c-338d-419c-8ebc-9a49f6ed0b4b</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:190645127#wid=MLB3542159323&amp;sid=search&amp;searchVariation=MLB27999036&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=9f74909c-338d-419c-8ebc-9a49f6ed0b4b</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>96.23</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:190645127#wid=MLB3627409155&amp;sid=search&amp;searchVariation=MLB27685629&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=c0043f65-721b-4ec5-9582-0e7faeaacb95</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>74.98999999999999</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:190645127#wid=MLB4438980164&amp;sid=search&amp;searchVariation=MLB28722231&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=c0043f65-721b-4ec5-9582-0e7faeaacb95</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:190645127#wid=MLB3181194734&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=9f74909c-338d-419c-8ebc-9a49f6ed0b4b</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:190645127#wid=MLB3786415543&amp;sid=search&amp;searchVariation=MLB23456525&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=c0043f65-721b-4ec5-9582-0e7faeaacb95</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Controle Jfa Red Line Longa Distância</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>107.04</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1343000452-controle-jfa-red-line-longa-distncia-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De85fdfe2-a370-4fdc-a94e-cf5f1dfb897b</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:190645127#wid=MLB3462155568&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=9f74909c-338d-419c-8ebc-9a49f6ed0b4b</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Modulo Amplificador Jfa Ap 380x4 Rms 4 Canais Potência Cor Preto</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>293.73</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/modulo-amplificador-jfa-ap-380x4-rms-4-canais-potncia-cor-preto/p/MLB36972018?pdp_filters=seller_id:190645127#wid=MLB5014380580&amp;sid=search&amp;searchVariation=MLB36972018&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=c0043f65-721b-4ec5-9582-0e7faeaacb95</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva 120a Amperes Jfa Carregador</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2166850850-fonte-carregador-automotiva-120a-amperes-jfa-carregador-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45d85579-cb48-46ef-bec1-573593951400</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Jfa Vs5hi - Sequenciador Voltímetro Medidor Bateria Digital</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>52.19</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1385929224-jfa-vs5hi-sequenciador-voltimetro-medidor-bateria-digital-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45d85579-cb48-46ef-bec1-573593951400</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:190645127#wid=MLB4438956274&amp;sid=search&amp;searchVariation=MLB32364344&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=9f74909c-338d-419c-8ebc-9a49f6ed0b4b</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668270466-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D880691e5-efe1-4460-baa3-ab3951d4bcb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:190645127#wid=MLB3568591115&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=c0043f65-721b-4ec5-9582-0e7faeaacb95</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>552.35</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:190645127#wid=MLB4670894896&amp;sid=search&amp;searchVariation=MLB23998473&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=9f74909c-338d-419c-8ebc-9a49f6ed0b4b</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>917.11</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:190645127#wid=MLB3274816299&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=03750964-41de-4b6f-b2e1-3925639cfbdb</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>643.0599999999999</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668362898-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D212372e6-43e1-49b4-a964-debb675a3bbd</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2166702825-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D212372e6-43e1-49b4-a964-debb675a3bbd</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>738.22</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:190645127#wid=MLB3786480397&amp;sid=search&amp;searchVariation=MLB24154371&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=c0043f65-721b-4ec5-9582-0e7faeaacb95</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>702.29</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3264899643-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D212372e6-43e1-49b4-a964-debb675a3bbd</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>508.22</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:190645127#wid=MLB3180985049&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=03750964-41de-4b6f-b2e1-3925639cfbdb</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Kit 2 Controles Longa Distancia Jfa Preto Com Verde K600 M</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>129.99</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-preto-com-verde-k600-m/p/MLB28056168?pdp_filters=seller_id:190645127#wid=MLB4617391776&amp;sid=search&amp;searchVariation=MLB28056168&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=03750964-41de-4b6f-b2e1-3925639cfbdb</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668299822-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D212372e6-43e1-49b4-a964-debb675a3bbd</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Preto Com Verde</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-preto-com-verde/p/MLB32381086?pdp_filters=seller_id:190645127#wid=MLB5012304038&amp;sid=search&amp;searchVariation=MLB32381086&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=85089311-ad27-44c0-9116-57598624717f</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>350</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:190645127#wid=MLB4540678780&amp;sid=search&amp;searchVariation=MLB33435981&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=13551c15-4cb5-4684-94ab-b15359c68c34</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 120 Amperes Sistema Csi</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668350670-fonte-automotiva-jfa-120-amperes-sistema-csi-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D64127e1e-f623-40e9-a6a1-f4546d80648d</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 2000w 12/220v Senoidal Puro</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:190645127#wid=MLB4663252244&amp;sid=search&amp;searchVariation=MLB32974100&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=13551c15-4cb5-4684-94ab-b15359c68c34</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 70a Lite Bivolt - 12v</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3307301267-fonte-carregador-jfa-storm-70a-lite-bivolt-12v-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D64127e1e-f623-40e9-a6a1-f4546d80648d</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>508.22</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:190645127#wid=MLB4670708274&amp;sid=search&amp;searchVariation=MLB25571709&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=13551c15-4cb5-4684-94ab-b15359c68c34</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Red Line Wr Completo Vermelho</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>96.23</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1967855758-controle-longa-distancia-jfa-red-line-wr-completo-vermelho-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D64127e1e-f623-40e9-a6a1-f4546d80648d</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>873.4400000000001</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:190645127#wid=MLB3689738515&amp;sid=search&amp;searchVariation=MLB26091477&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=6238b091-4b4a-4044-bda3-6185d72bcebe</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:190645127#wid=MLB4663541870&amp;sid=search&amp;searchVariation=MLB35970528&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=18a3acc8-529d-402d-8e2f-b5f9a1de056f</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Completo Jfa K600 Preto / Verde</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2011824983-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D64127e1e-f623-40e9-a6a1-f4546d80648d</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Fonte Automotivo Carregador Jfa Sci 120-a Smart Charger</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1776639477-fonte-automotivo-carregador-jfa-sci-120-a-smart-charger-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D64127e1e-f623-40e9-a6a1-f4546d80648d</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Controle Remoto Longa Distancia Jfa K600 Laranja/Preto</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k600-laranjapreto/p/MLB31403178?pdp_filters=seller_id:190645127#wid=MLB3518564085&amp;sid=search&amp;searchVariation=MLB31403178&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=18a3acc8-529d-402d-8e2f-b5f9a1de056f</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>435.62</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2969468591-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D64127e1e-f623-40e9-a6a1-f4546d80648d</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>590.5599999999999</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3311602994-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D93d0c005-db32-4525-82ca-e41a79c13ef7</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm Lite 60a 3000 W Preto</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>402.14</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668286418-fonte-carregador-jfa-storm-lite-60a-3000-w-preto-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D93d0c005-db32-4525-82ca-e41a79c13ef7</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Nova Fonte Automotiva 60a Amperes Jfa Carregador Storm Novo</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2205960702-nova-fonte-automotiva-60a-amperes-jfa-carregador-storm-novo-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D93d0c005-db32-4525-82ca-e41a79c13ef7</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1312001423-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D93d0c005-db32-4525-82ca-e41a79c13ef7</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>715.66</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2714500016-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D93d0c005-db32-4525-82ca-e41a79c13ef7</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Voltimetro Sequenciador Jfa Vs5hi C/ 5 Saídas Remotas</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>62</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1385926184-voltimetro-sequenciador-jfa-vs5hi-c-5-saidas-remotas-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D93d0c005-db32-4525-82ca-e41a79c13ef7</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bo</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>643.0599999999999</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684142641-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bo-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D93d0c005-db32-4525-82ca-e41a79c13ef7</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>555.9299999999999</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668309628-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D65e518c5-42b4-4798-93a9-f8320cc98616</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683851635-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D65e518c5-42b4-4798-93a9-f8320cc98616</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684181739-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D65e518c5-42b4-4798-93a9-f8320cc98616</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>447.46</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668323764-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0efaeb7f-0796-4cd4-9a76-1ed3f9ad1009</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>71.23999999999999</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2734228186-controle-longa-distncia-jfa-k1200-pretolaranja-1200mt-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84f73dc3-656d-4a0f-a76a-0240d052cf0d</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>539.34</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684206801-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84f73dc3-656d-4a0f-a76a-0240d052cf0d</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Digital Jfa Turbo 70a Bivolt Automática</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>508.22</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1312001632-fonte-automotiva-digital-jfa-turbo-70a-bivolt-automatica-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfcc559a8-403f-4551-8cb4-57f167b63aca</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120 A Jfa Carregador</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1311998556-fonte-automotiva-120-a-jfa-carregador-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfcc559a8-403f-4551-8cb4-57f167b63aca</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob 200</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>643.0599999999999</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684168355-fonte-carregador-jfa-bob-200-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc6454830-3eee-4734-bf65-85e4aa1656a8</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>107.04</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2711628545-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc6454830-3eee-4734-bf65-85e4aa1656a8</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Conversor Jfa Slim Rca Comando Remoto</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>55</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164196082-conversor-jfa-slim-rca-comando-remoto-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbc32094a-d90c-4ec2-8ebe-6c9c9a502e9f</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>590.5599999999999</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3307002900-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da94f8fcb-781a-44bf-a3bc-53df395abb20</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 120a Bivolt Slim</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684181783-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da1f298f2-daef-400b-820b-7b4cbb5eb7ae</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>917.11</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668325630-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da94f8fcb-781a-44bf-a3bc-53df395abb20</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>96.23</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683735209-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da1f298f2-daef-400b-820b-7b4cbb5eb7ae</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>917.11</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684194497-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da1f298f2-daef-400b-820b-7b4cbb5eb7ae</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Digital Voltímetro Som</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>917.11</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683749747-fonte-automotiva-jfa-200a-slim-bivolt-digital-voltimetro-som-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da1f298f2-daef-400b-820b-7b4cbb5eb7ae</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Fonte Jfa 70a Sci - Fonte Carregador Bateria Inteligente 12v</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>539.34</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683749493-fonte-jfa-70a-sci-fonte-carregador-bateria-inteligente-12v-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da1f298f2-daef-400b-820b-7b4cbb5eb7ae</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bo</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>643.0599999999999</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684245311-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bo-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df73ba56e-16e4-4289-9350-2367d39f0571</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 120a Slim Bivolt Voltímetro Digital Som</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>778.05</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668285660-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df73ba56e-16e4-4289-9350-2367d39f0571</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668338738-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df73ba56e-16e4-4289-9350-2367d39f0571</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120 A Jfa Carregador Modelo</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668286328-fonte-automotiva-120-a-jfa-carregador-modelo-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df73ba56e-16e4-4289-9350-2367d39f0571</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>873.4400000000001</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683813733-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3de49af2-a9d9-4e59-ab0d-11bf5c8bf44b</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>107.04</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684155913-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3de49af2-a9d9-4e59-ab0d-11bf5c8bf44b</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2166741154-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfc56264e-71f3-46a2-aa2f-04bff0afa76f</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>873.4400000000001</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683747997-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D23ae687c-8a63-41dc-a97d-c6aaced47e10</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Completo Jfa Branco / Cinza K600</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1550166570-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D72dd2b51-e9d1-42ea-a4d4-8c7fa9bf69ff</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>443</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4102740348-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7e3b2406-da67-4f33-992b-3a860e2e6019</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Nova Fonte Automotiva 70a Amperes Jfa Carregador Storm Novo</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>508.22</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2621269843-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7e3b2406-da67-4f33-992b-3a860e2e6019</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>435.62</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3683826961-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7e3b2406-da67-4f33-992b-3a860e2e6019</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Lite Storm Automotivo Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>402.14</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3344399244-fonte-carregador-jfa-60a-lite-storm-automotivo-slim-bivolt-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a14d1e4-f5c4-4843-9f61-f2098da84f2d</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>447.46</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3257194701-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a14d1e4-f5c4-4843-9f61-f2098da84f2d</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3684142123-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a14d1e4-f5c4-4843-9f61-f2098da84f2d</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Módulo Amplificador Jfa 380x4 Crossover Integrado 4 Canais</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>445</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3686292837-modulo-amplificador-jfa-380x4-crossover-integrado-4-canais-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a14d1e4-f5c4-4843-9f61-f2098da84f2d</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1312001389-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D58e21943-04e9-494c-923c-6ae52757de42</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>873.4400000000001</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1312002139-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcf25779a-ca5a-45b5-ae58-42d98a705e93</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>539.34</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2617179137-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcf25779a-ca5a-45b5-ae58-42d98a705e93</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia K1200 Jfa Preto Com Laranja</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2734195628-controle-longa-distancia-k1200-jfa-preto-com-laranja-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D39af0232-9d69-4f7c-90c0-aad1be69d570</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>435.62</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4668299414-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D39af0232-9d69-4f7c-90c0-aad1be69d570</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 2 Cores</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>75.04000000000001</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2734209043-controle-remoto-universal-longa-distncia-jfa-k1200-2-cores-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D39af0232-9d69-4f7c-90c0-aad1be69d570</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>topshitech</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Preto/laranja 600 Mts</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1550168269-controle-longa-distancia-jfa-k600-pretolaranja-600-mts-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D39af0232-9d69-4f7c-90c0-aad1be69d570</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>